--- a/data/trans_camb/P15B_tráfico-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P15B_tráfico-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>11.75381717111837</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23.2380216196394</v>
+        <v>23.23802161963939</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.8143504828482417</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.253938508812137</v>
+        <v>-6.674786917453648</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-22.96098641695442</v>
+        <v>-21.85651715948271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.26080604342695</v>
+        <v>-12.35869184853389</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-48.14807799777292</v>
+        <v>-44.48141210767534</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-50.21049209088041</v>
+        <v>-53.12079228666763</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-61.34634302194123</v>
+        <v>-59.72210436279545</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-12.11220916802122</v>
+        <v>-10.30477321036646</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-23.42944629040579</v>
+        <v>-24.43695554176975</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-21.11163034001729</v>
+        <v>-23.08389640300155</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>52.53842979861013</v>
+        <v>54.73598294414194</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>38.7432840986762</v>
+        <v>40.84330928783692</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49.57913096296005</v>
+        <v>51.77363074226798</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32.8358104544036</v>
+        <v>34.69538886272586</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>28.75107141711625</v>
+        <v>27.01604173823149</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.83436657422356</v>
+        <v>15.33539449795033</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>34.86126811795918</v>
+        <v>37.29995570240632</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>24.51121915076712</v>
+        <v>24.80070430730269</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>24.37492984274017</v>
+        <v>25.01728484405812</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.6061231987086654</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1.198342954522642</v>
+        <v>1.198342954522641</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.02947821354962895</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2190016457210937</v>
+        <v>-0.2347488638714388</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6315402598974417</v>
+        <v>-0.6632976873977841</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3368069573505996</v>
+        <v>-0.4283846719399252</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7643379531952653</v>
+        <v>-0.7301642335987834</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7921633206525817</v>
+        <v>-0.7977065611539468</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8756585372395584</v>
+        <v>-0.873425840230884</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.307259967184718</v>
+        <v>-0.2866052325320216</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6038530677952717</v>
+        <v>-0.5649881050717301</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5293293103556096</v>
+        <v>-0.5640316244048573</v>
       </c>
     </row>
     <row r="9">
@@ -821,13 +821,13 @@
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>4.590905637666824</v>
+        <v>5.594962055762408</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.386263765585323</v>
+        <v>3.170386746890919</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.831286521042107</v>
+        <v>3.688564214687113</v>
       </c>
     </row>
     <row r="10">
@@ -848,7 +848,7 @@
         <v>-69.35777905664297</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-52.85913310849723</v>
+        <v>-52.85913310849721</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-13.42422840095731</v>
@@ -866,7 +866,7 @@
         <v>-37.01523401107433</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-33.59164062536294</v>
+        <v>-33.59164062536296</v>
       </c>
     </row>
     <row r="11">
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-70.59565756291944</v>
+        <v>-70.76210230308801</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-93.91969184103937</v>
+        <v>-93.95244489741982</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-80.99771286929662</v>
+        <v>-80.22884581064544</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-53.96987257380164</v>
+        <v>-50.29128680228961</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-47.45570540604404</v>
+        <v>-51.12736065956288</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-52.5710137483773</v>
+        <v>-50.98490604820485</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-52.94686191260906</v>
+        <v>-54.29706539039939</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-64.51574780733931</v>
+        <v>-62.66534097628671</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-59.48926640260434</v>
+        <v>-60.47666760783336</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-7.322234213375685</v>
+        <v>-1.962536522298703</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-25.23947563900142</v>
+        <v>-19.45823965758059</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-8.457611964819819</v>
+        <v>-14.27150326159839</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.4516339463872</v>
+        <v>18.34189383957008</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>30.50799496647378</v>
+        <v>30.87612299815315</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>11.90121343348149</v>
+        <v>13.68671438476024</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1958883557837912</v>
+        <v>0.1099636339178048</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-6.910410325345205</v>
+        <v>-6.354500604640783</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-4.819125832185396</v>
+        <v>-5.656044045899704</v>
       </c>
     </row>
     <row r="13">
@@ -953,7 +953,7 @@
         <v>-0.7995371703100764</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.6093453724361103</v>
+        <v>-0.60934537243611</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.3980326478981573</v>
@@ -971,7 +971,7 @@
         <v>-0.6329080855973178</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.5743694867337809</v>
+        <v>-0.5743694867337811</v>
       </c>
     </row>
     <row r="14">
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7296519189119888</v>
+        <v>-0.73758999064472</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.943527084246889</v>
+        <v>-0.9424167287026152</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8672397540497897</v>
+        <v>-0.8490677268078322</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8313681406886133</v>
+        <v>-0.8461015378310568</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8479627237518875</v>
+        <v>-0.8550182661607235</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8389067203128413</v>
+        <v>-0.8452489387336184</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.693180476572855</v>
+        <v>-0.7039363950675069</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8563746816579106</v>
+        <v>-0.8621006472498853</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7821700371578687</v>
+        <v>-0.7821765475923402</v>
       </c>
     </row>
     <row r="15">
@@ -1017,29 +1017,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.2331276448327557</v>
+        <v>-0.156457904823492</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.4209962216693101</v>
+        <v>-0.4453168385167466</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1640763378435303</v>
-      </c>
-      <c r="F15" s="6" t="inlineStr"/>
+        <v>-0.2359034222269506</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>2.335387825027861</v>
+      </c>
       <c r="G15" s="6" t="n">
-        <v>3.394023027364272</v>
+        <v>3.038819343248373</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.316164780903429</v>
+        <v>1.226327710430108</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01144923874295349</v>
+        <v>-0.002839329269479412</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1501702919510538</v>
+        <v>-0.1905378286410504</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1076197863321901</v>
+        <v>-0.1248690362886509</v>
       </c>
     </row>
     <row r="16">
@@ -1089,31 +1091,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-56.98043602510879</v>
+        <v>-54.28818505174069</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-42.42175908550656</v>
+        <v>-41.17927847201636</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-52.18947564201858</v>
+        <v>-50.29290999608627</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.54399504736246</v>
+        <v>2.5888017001577</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.577464915414958</v>
+        <v>6.971744043653019</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-45.23573370129935</v>
+        <v>-44.20973145588073</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-38.89804037622955</v>
+        <v>-34.98799659995945</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-40.38038298672297</v>
+        <v>-39.63403994876718</v>
       </c>
     </row>
     <row r="18">
@@ -1124,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-3.621487518411001</v>
+        <v>-4.954610660606615</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.98557878497616</v>
+        <v>17.73018935479058</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.348002122844011</v>
+        <v>-0.492973989902661</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26.03124408209845</v>
+        <v>27.08220538380972</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>34.33336764293873</v>
+        <v>36.04881300950583</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>34.33064644348687</v>
+        <v>34.16345601058426</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1093500818903083</v>
+        <v>-1.09586218996927</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>11.23710951529976</v>
+        <v>14.17601229349437</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.331920137880602</v>
+        <v>5.593939472111991</v>
       </c>
     </row>
     <row r="19">
@@ -1189,7 +1191,7 @@
         <v>-0.3100980290133479</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.5007325354340613</v>
+        <v>-0.5007325354340614</v>
       </c>
     </row>
     <row r="20">
@@ -1200,25 +1202,23 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.9659721727835048</v>
+        <v>-0.9621707034019289</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8010081419671004</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.8099024013668865</v>
+      </c>
+      <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.8961562471613359</v>
+        <v>-0.8987129021186823</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8014317037090717</v>
+        <v>-0.7711019419745407</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.8340260130842868</v>
+        <v>-0.8615403089966956</v>
       </c>
     </row>
     <row r="21">
@@ -1229,25 +1229,23 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1019652043445896</v>
+        <v>-0.09844130517910565</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.29977730770164</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0.4281780412567389</v>
-      </c>
+        <v>1.258022550007524</v>
+      </c>
+      <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>0.1511007169544211</v>
+        <v>0.08975677595898812</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.082548530220016</v>
+        <v>1.248302766576372</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7611199980806527</v>
+        <v>0.5442352058578797</v>
       </c>
     </row>
     <row r="22">
@@ -1286,7 +1284,7 @@
         <v>-9.036095145273402</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>21.79349388929788</v>
+        <v>21.79349388929787</v>
       </c>
     </row>
     <row r="23">
@@ -1297,31 +1295,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.514644219389121</v>
+        <v>-9.699646405335411</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.43657943195175</v>
+        <v>-10.02767737238733</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.898216526362525</v>
+        <v>-5.845516597206072</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-65.33245557820992</v>
+        <v>-62.39115428282802</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-67.14333338627692</v>
+        <v>-69.17124247118892</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-20.51115134442804</v>
+        <v>-23.9775959498634</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-20.85784346492402</v>
+        <v>-21.26347197565161</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-28.43814448515428</v>
+        <v>-27.70758176536906</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.623816296545448</v>
+        <v>-5.688130588446741</v>
       </c>
     </row>
     <row r="24">
@@ -1332,31 +1330,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>37.4827710935484</v>
+        <v>37.26206292042376</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>27.76672439429776</v>
+        <v>26.89291373676065</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>52.51820525433778</v>
+        <v>55.2068224921476</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7365392353593069</v>
+        <v>1.047116892684772</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-9.607517440286854</v>
+        <v>-9.617408594885662</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>57.39575125438713</v>
+        <v>59.54064548238738</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>17.45647459653176</v>
+        <v>16.38052396053803</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.532582238336974</v>
+        <v>5.771867493869961</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>45.97018426046181</v>
+        <v>44.35960402572179</v>
       </c>
     </row>
     <row r="25">
@@ -1402,27 +1400,25 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6904845462611602</v>
+        <v>-0.6275200311180804</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6744244971828047</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>-0.6634074093843714</v>
-      </c>
+        <v>-0.6719699139823351</v>
+      </c>
+      <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>-0.4709040647492784</v>
+        <v>-0.5611488214088397</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.7184209032555066</v>
+        <v>-0.7352229378530135</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.8685820619209478</v>
+        <v>-0.8612785610182939</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2632045893752444</v>
+        <v>-0.2740517557726226</v>
       </c>
     </row>
     <row r="27">
@@ -1437,17 +1433,15 @@
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
-      <c r="H27" s="6" t="n">
-        <v>5.508010734022326</v>
-      </c>
+      <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>2.81597795906651</v>
+        <v>2.453759547358059</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.071196102541085</v>
+        <v>0.7784253025989781</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>6.435150756633595</v>
+        <v>6.097798639661642</v>
       </c>
     </row>
     <row r="28">
@@ -1468,7 +1462,7 @@
         <v>6.1008450936251</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9.617311101002104</v>
+        <v>9.6173111010021</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>22.37050662261626</v>
@@ -1497,29 +1491,29 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-18.98263417114885</v>
+        <v>-19.91619400067215</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-37.68178409755097</v>
+        <v>-29.11187323534325</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-28.7060835561942</v>
+        <v>-27.46303747997907</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-24.39320574663704</v>
+        <v>-23.18738351148111</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-71.3047120318849</v>
+        <v>-69.99970942235687</v>
       </c>
       <c r="H29" s="5" t="inlineStr"/>
       <c r="I29" s="5" t="n">
-        <v>-8.411011635094805</v>
+        <v>-7.757614534476258</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-33.68592039952222</v>
+        <v>-34.07764892039743</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-28.89819785791207</v>
+        <v>-26.08766546982614</v>
       </c>
     </row>
     <row r="30">
@@ -1530,29 +1524,29 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>51.00777316707131</v>
+        <v>46.37242460448392</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>35.84109650389018</v>
+        <v>36.28066210001202</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>42.99013051350308</v>
+        <v>42.43866466262426</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>55.35032333223858</v>
+        <v>57.60877388640251</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="5" t="inlineStr"/>
       <c r="I30" s="5" t="n">
-        <v>44.12143126989361</v>
+        <v>45.03341688808165</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>19.38028368564575</v>
+        <v>18.63392436087821</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>38.76378922523861</v>
+        <v>37.74221512055709</v>
       </c>
     </row>
     <row r="31">
@@ -1569,7 +1563,7 @@
         <v>0.4969692498222472</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.7834173478960141</v>
+        <v>0.7834173478960139</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.8740921778393803</v>
@@ -1601,12 +1595,12 @@
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="n">
-        <v>-0.5124224824482824</v>
+        <v>-0.4699098395714751</v>
       </c>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>-0.2450609127359062</v>
+        <v>-0.2821034839355134</v>
       </c>
       <c r="J32" s="6" t="inlineStr"/>
       <c r="K32" s="6" t="inlineStr"/>
@@ -1625,7 +1619,7 @@
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>7.112746405234054</v>
+        <v>7.069697887729344</v>
       </c>
       <c r="J33" s="6" t="inlineStr"/>
       <c r="K33" s="6" t="inlineStr"/>
@@ -1657,7 +1651,7 @@
         <v>9.810030394284484</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>5.776904008644568</v>
+        <v>5.776904008644569</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>20.6854793043967</v>
@@ -1666,7 +1660,7 @@
         <v>11.18719501221419</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>8.462684123978297</v>
+        <v>8.462684123978299</v>
       </c>
     </row>
     <row r="35">
@@ -1677,31 +1671,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>13.26998559068205</v>
+        <v>12.7267925872573</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>3.453564771671611</v>
+        <v>3.464152419955078</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2.912010476929994</v>
+        <v>2.855792017551604</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5.303454506746216</v>
+        <v>5.002089608085003</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>2.528033583742625</v>
+        <v>2.512099819221802</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.315068571545106</v>
+        <v>1.339500768019297</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>10.77263780359138</v>
+        <v>11.84871219167128</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>4.376899228218368</v>
+        <v>4.298529546503377</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>3.964381669534343</v>
+        <v>3.654768669394656</v>
       </c>
     </row>
     <row r="36">
@@ -1712,31 +1706,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>50.16230972834378</v>
+        <v>51.18996411493391</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>32.16732885035248</v>
+        <v>31.6426783569221</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>27.79432223551726</v>
+        <v>27.28960147857694</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>27.58436110550448</v>
+        <v>29.00272003945985</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>25.25742480052051</v>
+        <v>25.44456682221983</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>15.51999463585039</v>
+        <v>15.51086334275896</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>33.30041258207246</v>
+        <v>33.2786684008265</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>22.66636098700149</v>
+        <v>22.48470136521898</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>18.38157878131055</v>
+        <v>17.31971198183867</v>
       </c>
     </row>
     <row r="37">
@@ -1844,7 +1838,7 @@
         <v>-0.2451035564884796</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6.570514064765992</v>
+        <v>6.570514064765987</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-4.559785271293401</v>
@@ -1853,7 +1847,7 @@
         <v>17.71850357213266</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-1.422731302304711</v>
+        <v>-1.422731302304708</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-10.75953302907024</v>
@@ -1873,31 +1867,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-38.23197175412174</v>
+        <v>-35.87316463471916</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-25.58865150113147</v>
+        <v>-25.946730593662</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-17.26512858082017</v>
+        <v>-16.32312387347667</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-30.52912272791815</v>
+        <v>-28.07943675043552</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-11.0464911605967</v>
+        <v>-10.43735118036125</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-27.32692425077189</v>
+        <v>-32.06665132735631</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-25.86350185563822</v>
+        <v>-26.38235375894247</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-10.93395730154819</v>
+        <v>-10.69436341432692</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-13.41776245116083</v>
+        <v>-14.41687590194138</v>
       </c>
     </row>
     <row r="42">
@@ -1908,31 +1902,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.093465214822845</v>
+        <v>1.782406143648886</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>24.52593637012436</v>
+        <v>25.15838732646795</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>29.61529835738623</v>
+        <v>27.16622736625748</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>13.09697556093592</v>
+        <v>14.35337686796057</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>42.716712894966</v>
+        <v>43.09242381957731</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>19.78887744996137</v>
+        <v>16.73570951838503</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.624944605147601</v>
+        <v>2.590171426402208</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>26.84780123658006</v>
+        <v>25.74194492584963</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>17.93344190325247</v>
+        <v>16.48786361524888</v>
       </c>
     </row>
     <row r="43">
@@ -1949,7 +1943,7 @@
         <v>-0.008537642337532479</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.2288693802014881</v>
+        <v>0.2288693802014879</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.2125734330569424</v>
@@ -1958,7 +1952,7 @@
         <v>0.8260220402640932</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.0663265612862292</v>
+        <v>-0.06632656128622907</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.417298813725603</v>
@@ -1978,31 +1972,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.8380500064693364</v>
+        <v>-0.8167442329720218</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6261920991897344</v>
+        <v>-0.6390264957461735</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4236608957470687</v>
+        <v>-0.4048586846062498</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.7559070930241915</v>
+        <v>-0.7319421522047259</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4017259147677279</v>
+        <v>-0.3044526192105459</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.695318268676999</v>
+        <v>-0.7094065523033638</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.6918256885209624</v>
+        <v>-0.7145228280326824</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3413605009115649</v>
+        <v>-0.307645053858882</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3729506483574853</v>
+        <v>-0.3967314198683256</v>
       </c>
     </row>
     <row r="45">
@@ -2013,31 +2007,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2313224118876362</v>
+        <v>0.1954055738592644</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.459089338280292</v>
+        <v>1.714459332867773</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.072871999729002</v>
+        <v>1.772735615147545</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.174859870842097</v>
+        <v>2.305093841175594</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>5.976306155515291</v>
+        <v>5.405627452294087</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>3.486288480119485</v>
+        <v>2.410508642862657</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1254625511984849</v>
+        <v>0.2026099354514919</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.74594914047895</v>
+        <v>1.649731572344793</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.19018774840835</v>
+        <v>1.124468675490076</v>
       </c>
     </row>
     <row r="46">
@@ -2087,31 +2081,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-38.74781951274173</v>
+        <v>-39.13493665664933</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-55.77027836870667</v>
+        <v>-56.18498203774161</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-62.02989378189019</v>
+        <v>-64.48333913485729</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-24.76033983152741</v>
+        <v>-24.83505941892762</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-22.02468850565103</v>
+        <v>-24.83755207292979</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-7.978740018395741</v>
+        <v>-8.149573502337768</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-26.4190678036774</v>
+        <v>-25.54641829202874</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-33.0867556381933</v>
+        <v>-33.75424478857143</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-27.84644273354468</v>
+        <v>-28.76286918461792</v>
       </c>
     </row>
     <row r="48">
@@ -2122,31 +2116,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>19.15359431122322</v>
+        <v>17.31853865442122</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-6.112828036164551</v>
+        <v>-6.627435687557699</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-14.45956847220286</v>
+        <v>-17.81904662019557</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>16.45427254926783</v>
+        <v>18.51753684009019</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>19.31444994726161</v>
+        <v>17.72884926643539</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>34.44024964727632</v>
+        <v>33.70394937181574</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>10.41931928092168</v>
+        <v>11.33045959927562</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.735514812802377</v>
+        <v>-0.6676070342921175</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>5.156096525368937</v>
+        <v>4.012361824135779</v>
       </c>
     </row>
     <row r="49">
@@ -2192,29 +2186,29 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6079865196536803</v>
+        <v>-0.6161768784685961</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8307593998140895</v>
+        <v>-0.8417550749731767</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.9404472875695509</v>
-      </c>
-      <c r="F50" s="6" t="n">
-        <v>-0.8554324231357405</v>
-      </c>
-      <c r="G50" s="6" t="inlineStr"/>
+        <v>-0.9443333622208192</v>
+      </c>
+      <c r="F50" s="6" t="inlineStr"/>
+      <c r="G50" s="6" t="n">
+        <v>-0.7744866831380327</v>
+      </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2802741378289447</v>
+        <v>-0.2988616435438902</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.5929539547824716</v>
+        <v>-0.5763826371219289</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.721365894472113</v>
+        <v>-0.7206308798613962</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.6088980077050709</v>
+        <v>-0.6354580566866246</v>
       </c>
     </row>
     <row r="51">
@@ -2225,29 +2219,29 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.5399974579644369</v>
+        <v>0.4613514280391893</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.128414469302068</v>
+        <v>-0.1364840817959018</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.3202497707328794</v>
-      </c>
-      <c r="F51" s="6" t="n">
-        <v>2.230115589227909</v>
-      </c>
-      <c r="G51" s="6" t="inlineStr"/>
+        <v>-0.3754496095986342</v>
+      </c>
+      <c r="F51" s="6" t="inlineStr"/>
+      <c r="G51" s="6" t="n">
+        <v>2.186336518200503</v>
+      </c>
       <c r="H51" s="6" t="n">
-        <v>4.508882004099571</v>
+        <v>4.207531047225165</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4090091611158529</v>
+        <v>0.4239977883049496</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.02869953302371466</v>
+        <v>0.05859473154120198</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.2125318696837078</v>
+        <v>0.1770828987784752</v>
       </c>
     </row>
     <row r="52">
@@ -2297,31 +2291,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-17.45182639274213</v>
+        <v>-16.57519058975856</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-20.21542036991745</v>
+        <v>-22.67976810003693</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-16.19236564223077</v>
+        <v>-16.72958921083162</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-11.48498754257741</v>
+        <v>-13.26946777755815</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-13.97058947202486</v>
+        <v>-13.95296435221672</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-9.32810562830114</v>
+        <v>-10.13436098936786</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-12.11012873046989</v>
+        <v>-12.16757578989862</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-15.73163968864235</v>
+        <v>-16.23877061194862</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-11.33410794186779</v>
+        <v>-11.12076801366776</v>
       </c>
     </row>
     <row r="54">
@@ -2332,31 +2326,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.879421865935829</v>
+        <v>3.298493253542802</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.4682122445203858</v>
+        <v>-0.5545965575505676</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>5.704374097099388</v>
+        <v>5.520674885303561</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>8.233641675544961</v>
+        <v>7.631776488898745</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>5.675304977069319</v>
+        <v>6.491878661178847</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>10.67334121970629</v>
+        <v>10.23450481253614</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.800114364724019</v>
+        <v>2.387801019238555</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-0.7974922941889631</v>
+        <v>-1.198063558770865</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>3.976495343531933</v>
+        <v>4.216907947287363</v>
       </c>
     </row>
     <row r="55">
@@ -2402,31 +2396,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.4363302177440806</v>
+        <v>-0.4235889682718559</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.533415471832537</v>
+        <v>-0.5626442165048173</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.4270608748422903</v>
+        <v>-0.4151256789570242</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.4106160725828195</v>
+        <v>-0.4509102108206017</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.5100579272102121</v>
+        <v>-0.50380851612146</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.341280589422008</v>
+        <v>-0.3547069253114478</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.3622605585593964</v>
+        <v>-0.383744781897348</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.4833265737480922</v>
+        <v>-0.4878735464108498</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.3434517072251746</v>
+        <v>-0.3394245347908062</v>
       </c>
     </row>
     <row r="57">
@@ -2437,31 +2431,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.120255957126798</v>
+        <v>0.1376963601958148</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.01980175755634049</v>
+        <v>-0.01965162581757114</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.2268901795822288</v>
+        <v>0.2006232638097904</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.6279014939689762</v>
+        <v>0.5631998083615526</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.425598624158358</v>
+        <v>0.4722838812244088</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.750715731782754</v>
+        <v>0.7070561222157239</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.09164503468188649</v>
+        <v>0.1039485332434799</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.02536221249744975</v>
+        <v>-0.04495152826138363</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.1750387918930199</v>
+        <v>0.195213175684579</v>
       </c>
     </row>
     <row r="58">
